--- a/Excel/UnionConfig.xlsx
+++ b/Excel/UnionConfig.xlsx
@@ -1,26 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFD92D8-21D0-4B87-A1D2-FAAC06B3BE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66FF2B6-5C34-4948-A8C0-D75062960A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{EB8BF9CF-2C60-4CB9-87A0-39DDEF705B70}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+10，30 是指10-30随机</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -56,6 +92,104 @@
   </si>
   <si>
     <t>升级经验</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族5级</t>
+  </si>
+  <si>
+    <t>家族6级</t>
+  </si>
+  <si>
+    <t>家族7级</t>
+  </si>
+  <si>
+    <t>家族8级</t>
+  </si>
+  <si>
+    <t>家族9级</t>
+  </si>
+  <si>
+    <t>家族10级</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员上限</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PeopleNum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献金币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DonateGold</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献增加经验</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DonateExp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DonateReward</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献增加贡献值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级全员奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpAllReward</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,50000;16,10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,100000;16,10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,150000;16,10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,200000;16,10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,250000;16,10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -108,6 +242,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1400,19 +1549,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:HU9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:HU61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.75" style="3" customWidth="1"/>
-    <col min="6" max="229" width="8.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20.5" style="3" customWidth="1"/>
+    <col min="11" max="229" width="8.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:229" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3"/>
@@ -1429,6 +1583,21 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
@@ -1438,16 +1607,46 @@
       <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="3:229" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1458,7 +1657,22 @@
         <v>4</v>
       </c>
       <c r="E6" s="8">
-        <v>1000</v>
+        <v>500</v>
+      </c>
+      <c r="F6" s="8">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8">
+        <v>200000</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1469,7 +1683,22 @@
         <v>5</v>
       </c>
       <c r="E7" s="8">
-        <v>2000</v>
+        <v>1000</v>
+      </c>
+      <c r="F7" s="8">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8">
+        <v>220000</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1480,11 +1709,26 @@
         <v>6</v>
       </c>
       <c r="E8" s="8">
-        <v>3000</v>
+        <v>1800</v>
+      </c>
+      <c r="F8" s="8">
+        <v>21</v>
+      </c>
+      <c r="G8" s="8">
+        <v>240000</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="HU8"/>
     </row>
-    <row r="9" spans="3:229" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="8">
         <v>4</v>
       </c>
@@ -1492,10 +1736,227 @@
         <v>7</v>
       </c>
       <c r="E9" s="8">
-        <v>4000</v>
+        <v>2800</v>
+      </c>
+      <c r="F9" s="8">
+        <v>24</v>
+      </c>
+      <c r="G9" s="8">
+        <v>260000</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="HU9"/>
     </row>
+    <row r="10" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="8">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4000</v>
+      </c>
+      <c r="F10" s="8">
+        <v>27</v>
+      </c>
+      <c r="G10" s="8">
+        <v>280000</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="8">
+        <v>6</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8">
+        <v>5500</v>
+      </c>
+      <c r="F11" s="8">
+        <v>30</v>
+      </c>
+      <c r="G11" s="8">
+        <v>300000</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="8">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="8">
+        <v>7500</v>
+      </c>
+      <c r="F12" s="8">
+        <v>33</v>
+      </c>
+      <c r="G12" s="8">
+        <v>320000</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="8">
+        <v>8</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="8">
+        <v>10000</v>
+      </c>
+      <c r="F13" s="8">
+        <v>36</v>
+      </c>
+      <c r="G13" s="8">
+        <v>340000</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="8">
+        <v>9</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="8">
+        <v>13000</v>
+      </c>
+      <c r="F14" s="8">
+        <v>38</v>
+      </c>
+      <c r="G14" s="8">
+        <v>370000</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="8">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="8">
+        <v>16500</v>
+      </c>
+      <c r="F15" s="8">
+        <v>40</v>
+      </c>
+      <c r="G15" s="8">
+        <v>400000</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1503,5 +1964,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/UnionConfig.xlsx
+++ b/Excel/UnionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66FF2B6-5C34-4948-A8C0-D75062960A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92126DF9-C4AE-419C-8F6E-45E01F77E222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,6 +391,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1575,8 +1577,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2"/>
@@ -1589,325 +1591,325 @@
       <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>500</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>15</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>200000</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>1000</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>18</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>220000</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>1800</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>21</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>240000</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="HU8"/>
     </row>
     <row r="9" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>4</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>2800</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>24</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>260000</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="HU9"/>
     </row>
     <row r="10" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>4000</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>27</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>280000</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>6</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>5500</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>30</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>300000</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>7</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>7500</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>33</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>320000</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>10000</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>36</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>340000</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>9</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>13000</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>38</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>370000</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>10</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>16500</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>40</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>400000</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="7" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Excel/UnionConfig.xlsx
+++ b/Excel/UnionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92126DF9-C4AE-419C-8F6E-45E01F77E222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9BBFA9-6E45-491C-B9CE-78DAB49B1A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1555,7 +1555,7 @@
   <dimension ref="C1:HU61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1571,8 +1571,8 @@
     <col min="11" max="229" width="8.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:229" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:229" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>

--- a/Excel/UnionConfig.xlsx
+++ b/Excel/UnionConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9BBFA9-6E45-491C-B9CE-78DAB49B1A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5049DFA4-C049-46D8-B788-5C7E6945787C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{EB8BF9CF-2C60-4CB9-87A0-39DDEF705B70}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{EB8BF9CF-2C60-4CB9-87A0-39DDEF705B70}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -190,6 +190,14 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>修炼上限</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>XiuLianLevel</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1552,32 +1560,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:HU61"/>
+  <dimension ref="C1:HV61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="19.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="3" customWidth="1"/>
-    <col min="11" max="229" width="8.875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="19.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="3" customWidth="1"/>
+    <col min="12" max="230" width="8.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:229" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:230" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1586,22 +1594,25 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
@@ -1610,22 +1621,25 @@
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
@@ -1642,16 +1656,19 @@
         <v>16</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="7">
         <v>1</v>
       </c>
@@ -1662,22 +1679,25 @@
         <v>500</v>
       </c>
       <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
         <v>15</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>200000</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="7">
         <v>2</v>
       </c>
@@ -1688,22 +1708,25 @@
         <v>1000</v>
       </c>
       <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7">
         <v>18</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7" s="7">
         <v>220000</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="7">
         <v>3</v>
       </c>
@@ -1714,23 +1737,26 @@
         <v>1800</v>
       </c>
       <c r="F8" s="7">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7">
         <v>21</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>240000</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="HU8"/>
+      <c r="HV8"/>
     </row>
-    <row r="9" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="7">
         <v>4</v>
       </c>
@@ -1741,23 +1767,26 @@
         <v>2800</v>
       </c>
       <c r="F9" s="7">
+        <v>4</v>
+      </c>
+      <c r="G9" s="7">
         <v>24</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>260000</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="HU9"/>
+      <c r="HV9"/>
     </row>
-    <row r="10" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="7">
         <v>5</v>
       </c>
@@ -1768,22 +1797,25 @@
         <v>4000</v>
       </c>
       <c r="F10" s="7">
+        <v>5</v>
+      </c>
+      <c r="G10" s="7">
         <v>27</v>
       </c>
-      <c r="G10" s="7">
+      <c r="H10" s="7">
         <v>280000</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="7">
         <v>6</v>
       </c>
@@ -1794,22 +1826,25 @@
         <v>5500</v>
       </c>
       <c r="F11" s="7">
+        <v>6</v>
+      </c>
+      <c r="G11" s="7">
         <v>30</v>
       </c>
-      <c r="G11" s="7">
+      <c r="H11" s="7">
         <v>300000</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="7">
         <v>7</v>
       </c>
@@ -1820,22 +1855,25 @@
         <v>7500</v>
       </c>
       <c r="F12" s="7">
+        <v>7</v>
+      </c>
+      <c r="G12" s="7">
         <v>33</v>
       </c>
-      <c r="G12" s="7">
+      <c r="H12" s="7">
         <v>320000</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="7">
         <v>8</v>
       </c>
@@ -1846,22 +1884,25 @@
         <v>10000</v>
       </c>
       <c r="F13" s="7">
+        <v>8</v>
+      </c>
+      <c r="G13" s="7">
         <v>36</v>
       </c>
-      <c r="G13" s="7">
+      <c r="H13" s="7">
         <v>340000</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="7">
         <v>9</v>
       </c>
@@ -1872,22 +1913,25 @@
         <v>13000</v>
       </c>
       <c r="F14" s="7">
+        <v>9</v>
+      </c>
+      <c r="G14" s="7">
         <v>38</v>
       </c>
-      <c r="G14" s="7">
+      <c r="H14" s="7">
         <v>370000</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="7">
         <v>10</v>
       </c>
@@ -1898,22 +1942,25 @@
         <v>16500</v>
       </c>
       <c r="F15" s="7">
+        <v>10</v>
+      </c>
+      <c r="G15" s="7">
         <v>40</v>
       </c>
-      <c r="G15" s="7">
+      <c r="H15" s="7">
         <v>400000</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="3:229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/UnionConfig.xlsx
+++ b/Excel/UnionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5049DFA4-C049-46D8-B788-5C7E6945787C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CFD198-F40E-4792-B53A-4D2893CCA20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionProto" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -402,6 +402,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1563,7 +1566,7 @@
   <dimension ref="C1:HV61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1714,7 +1717,7 @@
         <v>18</v>
       </c>
       <c r="H7" s="7">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>24</v>
@@ -1725,6 +1728,7 @@
       <c r="K7" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="7">
@@ -1743,7 +1747,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>240000</v>
+        <v>220000</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>24</v>
@@ -1754,6 +1758,7 @@
       <c r="K8" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="M8" s="10"/>
       <c r="HV8"/>
     </row>
     <row r="9" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1773,7 +1778,7 @@
         <v>24</v>
       </c>
       <c r="H9" s="7">
-        <v>260000</v>
+        <v>230000</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>24</v>
@@ -1784,6 +1789,7 @@
       <c r="K9" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="M9" s="10"/>
       <c r="HV9"/>
     </row>
     <row r="10" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1803,7 +1809,7 @@
         <v>27</v>
       </c>
       <c r="H10" s="7">
-        <v>280000</v>
+        <v>240000</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>24</v>
@@ -1814,6 +1820,7 @@
       <c r="K10" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="7">
@@ -1832,7 +1839,7 @@
         <v>30</v>
       </c>
       <c r="H11" s="7">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>24</v>
@@ -1843,6 +1850,7 @@
       <c r="K11" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="7">
@@ -1861,7 +1869,7 @@
         <v>33</v>
       </c>
       <c r="H12" s="7">
-        <v>320000</v>
+        <v>260000</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>24</v>
@@ -1872,6 +1880,7 @@
       <c r="K12" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="7">
@@ -1890,7 +1899,7 @@
         <v>36</v>
       </c>
       <c r="H13" s="7">
-        <v>340000</v>
+        <v>270000</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>24</v>
@@ -1901,6 +1910,7 @@
       <c r="K13" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="7">
@@ -1919,7 +1929,7 @@
         <v>38</v>
       </c>
       <c r="H14" s="7">
-        <v>370000</v>
+        <v>285000</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>24</v>
@@ -1930,6 +1940,7 @@
       <c r="K14" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="7">
@@ -1948,7 +1959,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>24</v>
@@ -1959,6 +1970,7 @@
       <c r="K15" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/UnionConfig.xlsx
+++ b/Excel/UnionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CFD198-F40E-4792-B53A-4D2893CCA20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57287696-000C-4617-87A2-C4CB90830458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionProto" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{EDA88AC9-058A-4B8B-8FAB-5454A1AA1C48}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+10，30 是指10-30随机</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -198,6 +224,14 @@
   </si>
   <si>
     <t>XiuLianLevel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献增加家族金币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUnionGold</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1566,7 +1600,7 @@
   <dimension ref="C1:HV61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1579,7 +1613,8 @@
     <col min="9" max="9" width="18.125" style="3" customWidth="1"/>
     <col min="10" max="10" width="19.5" style="3" customWidth="1"/>
     <col min="11" max="11" width="20.5" style="3" customWidth="1"/>
-    <col min="12" max="230" width="8.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.125" style="3" customWidth="1"/>
+    <col min="13" max="230" width="8.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:230" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1614,6 +1649,9 @@
       <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="L3" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="9" t="s">
@@ -1641,6 +1679,9 @@
       <c r="K4" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="L4" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="9" t="s">
@@ -1670,6 +1711,9 @@
       <c r="K5" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="L5" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="7">
@@ -1699,6 +1743,9 @@
       <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="L6" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="7">
@@ -1727,6 +1774,9 @@
       </c>
       <c r="K7" s="7" t="s">
         <v>30</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="M7" s="10"/>
     </row>
@@ -1757,6 +1807,9 @@
       </c>
       <c r="K8" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="M8" s="10"/>
       <c r="HV8"/>
@@ -1789,6 +1842,9 @@
       <c r="K9" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="L9" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="HV9"/>
     </row>
@@ -1820,6 +1876,9 @@
       <c r="K10" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="L10" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1850,6 +1909,9 @@
       <c r="K11" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="L11" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1880,6 +1942,9 @@
       <c r="K12" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="L12" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1910,6 +1975,9 @@
       <c r="K13" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="L13" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1940,6 +2008,9 @@
       <c r="K14" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="L14" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1969,6 +2040,9 @@
       </c>
       <c r="K15" s="7" t="s">
         <v>34</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="M15" s="10"/>
     </row>

--- a/Excel/UnionConfig.xlsx
+++ b/Excel/UnionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57287696-000C-4617-87A2-C4CB90830458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838F03FF-A69B-45E9-8EE9-62A0BEBB5FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionProto" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -232,6 +232,10 @@
   </si>
   <si>
     <t>AddUnionGold</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,80000</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -439,6 +443,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1600,7 +1607,7 @@
   <dimension ref="C1:HV61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1743,8 +1750,8 @@
       <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>24</v>
+      <c r="L6" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1775,8 +1782,8 @@
       <c r="K7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>24</v>
+      <c r="L7" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="M7" s="10"/>
     </row>
@@ -1808,8 +1815,8 @@
       <c r="K8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>24</v>
+      <c r="L8" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="M8" s="10"/>
       <c r="HV8"/>
@@ -1842,8 +1849,8 @@
       <c r="K9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>24</v>
+      <c r="L9" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="M9" s="10"/>
       <c r="HV9"/>
@@ -1876,8 +1883,8 @@
       <c r="K10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>24</v>
+      <c r="L10" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="M10" s="10"/>
     </row>
@@ -1909,8 +1916,8 @@
       <c r="K11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>24</v>
+      <c r="L11" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="M11" s="10"/>
     </row>
@@ -1942,8 +1949,8 @@
       <c r="K12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>24</v>
+      <c r="L12" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="M12" s="10"/>
     </row>
@@ -1975,8 +1982,8 @@
       <c r="K13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>24</v>
+      <c r="L13" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="M13" s="10"/>
     </row>
@@ -2008,8 +2015,8 @@
       <c r="K14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>24</v>
+      <c r="L14" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
     </row>
@@ -2041,8 +2048,8 @@
       <c r="K15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>24</v>
+      <c r="L15" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="M15" s="10"/>
     </row>

--- a/Excel/UnionConfig.xlsx
+++ b/Excel/UnionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838F03FF-A69B-45E9-8EE9-62A0BEBB5FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC86A97-3F53-40D2-BD92-58EA2BB04F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionProto" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>捐献金币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>DonateGold</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -236,6 +232,18 @@
   </si>
   <si>
     <t>20000,80000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献消耗金币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnionGoldLimit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族金币上限</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -440,9 +448,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1606,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:HV61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1621,7 +1626,8 @@
     <col min="10" max="10" width="19.5" style="3" customWidth="1"/>
     <col min="11" max="11" width="20.5" style="3" customWidth="1"/>
     <col min="12" max="12" width="18.125" style="3" customWidth="1"/>
-    <col min="13" max="230" width="8.875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="3" customWidth="1"/>
+    <col min="14" max="230" width="8.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:230" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1639,25 +1645,28 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1669,25 +1678,28 @@
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1710,16 +1722,19 @@
         <v>16</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1742,16 +1757,19 @@
         <v>200000</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2000000</v>
       </c>
     </row>
     <row r="7" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1774,18 +1792,20 @@
         <v>210000</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2100000</v>
+      </c>
     </row>
     <row r="8" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="7">
@@ -1807,18 +1827,20 @@
         <v>220000</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2200000</v>
+      </c>
       <c r="HV8"/>
     </row>
     <row r="9" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1841,18 +1863,20 @@
         <v>230000</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2300000</v>
+      </c>
       <c r="HV9"/>
     </row>
     <row r="10" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1875,18 +1899,20 @@
         <v>240000</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2400000</v>
+      </c>
     </row>
     <row r="11" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="7">
@@ -1908,18 +1934,20 @@
         <v>250000</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2500000</v>
+      </c>
     </row>
     <row r="12" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="7">
@@ -1941,18 +1969,20 @@
         <v>260000</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="7">
+        <v>2600000</v>
+      </c>
     </row>
     <row r="13" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="7">
@@ -1974,18 +2004,20 @@
         <v>270000</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2700000</v>
+      </c>
     </row>
     <row r="14" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="7">
@@ -2007,18 +2039,20 @@
         <v>285000</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="7">
+        <v>2850000</v>
+      </c>
     </row>
     <row r="15" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="7">
@@ -2040,18 +2074,20 @@
         <v>300000</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="7">
+        <v>3000000</v>
+      </c>
     </row>
     <row r="16" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/UnionConfig.xlsx
+++ b/Excel/UnionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC86A97-3F53-40D2-BD92-58EA2BB04F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE40C51-B3C1-4972-8BA6-35F5FE472569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionProto" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{EB8BF9CF-2C60-4CB9-87A0-39DDEF705B70}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{EB8BF9CF-2C60-4CB9-87A0-39DDEF705B70}">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{EDA88AC9-058A-4B8B-8FAB-5454A1AA1C48}">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{EDA88AC9-058A-4B8B-8FAB-5454A1AA1C48}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -244,6 +244,14 @@
   </si>
   <si>
     <t>家族金币上限</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献消耗钻石</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DonateDiamond</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1609,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:HV61"/>
+  <dimension ref="C1:HW61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1621,22 +1629,22 @@
     <col min="4" max="4" width="14.125" style="3" customWidth="1"/>
     <col min="5" max="6" width="19.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="17.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="18.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="3" customWidth="1"/>
-    <col min="14" max="230" width="8.875" style="3" customWidth="1"/>
+    <col min="8" max="9" width="18.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="18.625" style="3" customWidth="1"/>
+    <col min="15" max="231" width="8.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:230" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:231" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1653,23 +1661,26 @@
       <c r="H3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
@@ -1687,22 +1698,25 @@
         <v>19</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
@@ -1722,22 +1736,25 @@
         <v>16</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="7">
         <v>1</v>
       </c>
@@ -1756,23 +1773,26 @@
       <c r="H6" s="7">
         <v>200000</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="7">
+        <v>180</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="7">
+      <c r="N6" s="7">
         <v>2000000</v>
       </c>
     </row>
-    <row r="7" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="7">
         <v>2</v>
       </c>
@@ -1791,23 +1811,26 @@
       <c r="H7" s="7">
         <v>210000</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>180</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="M7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="7">
+      <c r="N7" s="7">
         <v>2100000</v>
       </c>
     </row>
-    <row r="8" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="7">
         <v>3</v>
       </c>
@@ -1826,24 +1849,27 @@
       <c r="H8" s="7">
         <v>220000</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>180</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="7">
+      <c r="N8" s="7">
         <v>2200000</v>
       </c>
-      <c r="HV8"/>
+      <c r="HW8"/>
     </row>
-    <row r="9" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="7">
         <v>4</v>
       </c>
@@ -1862,24 +1888,27 @@
       <c r="H9" s="7">
         <v>230000</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="7">
+        <v>180</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="7">
+      <c r="N9" s="7">
         <v>2300000</v>
       </c>
-      <c r="HV9"/>
+      <c r="HW9"/>
     </row>
-    <row r="10" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="7">
         <v>5</v>
       </c>
@@ -1898,23 +1927,26 @@
       <c r="H10" s="7">
         <v>240000</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>180</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="M10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="7">
+      <c r="N10" s="7">
         <v>2400000</v>
       </c>
     </row>
-    <row r="11" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="7">
         <v>6</v>
       </c>
@@ -1933,23 +1965,26 @@
       <c r="H11" s="7">
         <v>250000</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>180</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="M11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="7">
+      <c r="N11" s="7">
         <v>2500000</v>
       </c>
     </row>
-    <row r="12" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="7">
         <v>7</v>
       </c>
@@ -1968,23 +2003,26 @@
       <c r="H12" s="7">
         <v>260000</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>180</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="M12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="7">
+      <c r="N12" s="7">
         <v>2600000</v>
       </c>
     </row>
-    <row r="13" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="7">
         <v>8</v>
       </c>
@@ -2003,23 +2041,26 @@
       <c r="H13" s="7">
         <v>270000</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>180</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="M13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="7">
+      <c r="N13" s="7">
         <v>2700000</v>
       </c>
     </row>
-    <row r="14" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="7">
         <v>9</v>
       </c>
@@ -2038,23 +2079,26 @@
       <c r="H14" s="7">
         <v>285000</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>180</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="M14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="7">
+      <c r="N14" s="7">
         <v>2850000</v>
       </c>
     </row>
-    <row r="15" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="7">
         <v>10</v>
       </c>
@@ -2073,23 +2117,26 @@
       <c r="H15" s="7">
         <v>300000</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="7">
+        <v>180</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="7">
+      <c r="N15" s="7">
         <v>3000000</v>
       </c>
     </row>
-    <row r="16" spans="3:230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/UnionConfig.xlsx
+++ b/Excel/UnionConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE40C51-B3C1-4972-8BA6-35F5FE472569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068D41B1-024B-47C7-9C27-6B4D9D4F7C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionProto" sheetId="1" r:id="rId1"/>
@@ -1620,7 +1620,7 @@
   <dimension ref="C1:HW61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1789,7 +1789,7 @@
         <v>39</v>
       </c>
       <c r="N6" s="7">
-        <v>2000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="7" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1827,7 +1827,8 @@
         <v>39</v>
       </c>
       <c r="N7" s="7">
-        <v>2100000</v>
+        <f>N6+50000000</f>
+        <v>100000000</v>
       </c>
     </row>
     <row r="8" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1865,7 +1866,8 @@
         <v>39</v>
       </c>
       <c r="N8" s="7">
-        <v>2200000</v>
+        <f t="shared" ref="N8:N15" si="0">N7+50000000</f>
+        <v>150000000</v>
       </c>
       <c r="HW8"/>
     </row>
@@ -1904,7 +1906,8 @@
         <v>39</v>
       </c>
       <c r="N9" s="7">
-        <v>2300000</v>
+        <f t="shared" si="0"/>
+        <v>200000000</v>
       </c>
       <c r="HW9"/>
     </row>
@@ -1943,7 +1946,8 @@
         <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>2400000</v>
+        <f t="shared" si="0"/>
+        <v>250000000</v>
       </c>
     </row>
     <row r="11" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1981,7 +1985,8 @@
         <v>39</v>
       </c>
       <c r="N11" s="7">
-        <v>2500000</v>
+        <f t="shared" si="0"/>
+        <v>300000000</v>
       </c>
     </row>
     <row r="12" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2019,7 +2024,8 @@
         <v>39</v>
       </c>
       <c r="N12" s="7">
-        <v>2600000</v>
+        <f t="shared" si="0"/>
+        <v>350000000</v>
       </c>
     </row>
     <row r="13" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2057,7 +2063,8 @@
         <v>39</v>
       </c>
       <c r="N13" s="7">
-        <v>2700000</v>
+        <f t="shared" si="0"/>
+        <v>400000000</v>
       </c>
     </row>
     <row r="14" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2095,7 +2102,8 @@
         <v>39</v>
       </c>
       <c r="N14" s="7">
-        <v>2850000</v>
+        <f t="shared" si="0"/>
+        <v>450000000</v>
       </c>
     </row>
     <row r="15" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2133,7 +2141,8 @@
         <v>39</v>
       </c>
       <c r="N15" s="7">
-        <v>3000000</v>
+        <f t="shared" si="0"/>
+        <v>500000000</v>
       </c>
     </row>
     <row r="16" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/UnionConfig.xlsx
+++ b/Excel/UnionConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068D41B1-024B-47C7-9C27-6B4D9D4F7C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A7C67E-1C8A-41AC-BA77-E5FAA7B1FC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>Id</t>
   </si>
@@ -167,92 +167,118 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>DonateReward</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献增加贡献值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级全员奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpAllReward</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,50000;16,10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,100000;16,10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,150000;16,10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,200000;16,10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,250000;16,10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>修炼上限</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>XiuLianLevel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献增加家族金币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUnionGold</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,80000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献消耗金币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnionGoldLimit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族金币上限</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐献消耗钻石</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DonateDiamond</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,32</t>
+  </si>
+  <si>
+    <t>14,34</t>
+  </si>
+  <si>
     <t>10,30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DonateReward</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>捐献增加贡献值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,15</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级全员奖励</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpAllReward</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,50000;16,10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,100000;16,10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,150000;16,10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,200000;16,10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,250000;16,10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>修炼上限</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>XiuLianLevel</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>捐献增加家族金币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddUnionGold</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,80000</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>捐献消耗金币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnionGoldLimit</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>家族金币上限</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>捐献消耗钻石</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>DonateDiamond</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,36</t>
+  </si>
+  <si>
+    <t>18,38</t>
+  </si>
+  <si>
+    <t>20,40</t>
+  </si>
+  <si>
+    <t>22,42</t>
+  </si>
+  <si>
+    <t>24,44</t>
+  </si>
+  <si>
+    <t>27,47</t>
+  </si>
+  <si>
+    <t>30,50</t>
   </si>
 </sst>
 </file>
@@ -1617,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:HW61"/>
+  <dimension ref="A1:HW61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1638,13 +1664,13 @@
     <col min="15" max="231" width="8.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:231" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:231" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1653,34 +1679,34 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +1715,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>18</v>
@@ -1698,25 +1724,25 @@
         <v>19</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
@@ -1745,7 +1771,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>22</v>
@@ -1754,7 +1780,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <f>E6/20</f>
+        <v>25</v>
+      </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
@@ -1777,22 +1810,29 @@
         <v>180</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N6" s="7">
         <v>50000000</v>
       </c>
     </row>
-    <row r="7" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <f>E7/A7</f>
+        <v>50</v>
+      </c>
       <c r="C7" s="7">
         <v>2</v>
       </c>
@@ -1815,23 +1855,30 @@
         <v>180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N7" s="7">
         <f>N6+50000000</f>
         <v>100000000</v>
       </c>
     </row>
-    <row r="8" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:B15" si="0">E8/A8</f>
+        <v>90</v>
+      </c>
       <c r="C8" s="7">
         <v>3</v>
       </c>
@@ -1854,24 +1901,31 @@
         <v>180</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N8" s="7">
-        <f t="shared" ref="N8:N15" si="0">N7+50000000</f>
+        <f t="shared" ref="N8:N15" si="1">N7+50000000</f>
         <v>150000000</v>
       </c>
       <c r="HW8"/>
     </row>
-    <row r="9" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
       <c r="C9" s="7">
         <v>4</v>
       </c>
@@ -1894,24 +1948,31 @@
         <v>180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200000000</v>
       </c>
       <c r="HW9"/>
     </row>
-    <row r="10" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
       <c r="C10" s="7">
         <v>5</v>
       </c>
@@ -1934,23 +1995,30 @@
         <v>180</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N10" s="7">
+        <f t="shared" si="1"/>
+        <v>250000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <f t="shared" si="0"/>
-        <v>250000000</v>
-      </c>
-    </row>
-    <row r="11" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
       <c r="C11" s="7">
         <v>6</v>
       </c>
@@ -1973,23 +2041,30 @@
         <v>180</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N11" s="7">
+        <f t="shared" si="1"/>
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
         <f t="shared" si="0"/>
-        <v>300000000</v>
-      </c>
-    </row>
-    <row r="12" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
       <c r="C12" s="7">
         <v>7</v>
       </c>
@@ -2012,23 +2087,30 @@
         <v>180</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N12" s="7">
+        <f t="shared" si="1"/>
+        <v>350000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
         <f t="shared" si="0"/>
-        <v>350000000</v>
-      </c>
-    </row>
-    <row r="13" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>500</v>
+      </c>
       <c r="C13" s="7">
         <v>8</v>
       </c>
@@ -2051,23 +2133,30 @@
         <v>180</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N13" s="7">
+        <f t="shared" si="1"/>
+        <v>400000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
         <f t="shared" si="0"/>
-        <v>400000000</v>
-      </c>
-    </row>
-    <row r="14" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>650</v>
+      </c>
       <c r="C14" s="7">
         <v>9</v>
       </c>
@@ -2090,23 +2179,30 @@
         <v>180</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N14" s="7">
+        <f t="shared" si="1"/>
+        <v>450000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
         <f t="shared" si="0"/>
-        <v>450000000</v>
-      </c>
-    </row>
-    <row r="15" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>825</v>
+      </c>
       <c r="C15" s="7">
         <v>10</v>
       </c>
@@ -2129,23 +2225,23 @@
         <v>180</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>500000000</v>
       </c>
     </row>
-    <row r="16" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/UnionConfig.xlsx
+++ b/Excel/UnionConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A7C67E-1C8A-41AC-BA77-E5FAA7B1FC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0415C89-5E7C-45A9-A292-1E5DCA11C3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1905" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionProto" sheetId="1" r:id="rId1"/>
@@ -1643,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:HW61"/>
+  <dimension ref="C1:HW61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1664,13 +1664,13 @@
     <col min="15" max="231" width="8.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:231" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:231" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="9" t="s">
         <v>1</v>
       </c>
@@ -1780,14 +1780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <f>E6/20</f>
-        <v>25</v>
-      </c>
+    <row r="6" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="7">
         <v>1</v>
       </c>
@@ -1825,14 +1818,7 @@
         <v>50000000</v>
       </c>
     </row>
-    <row r="7" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <f>E7/A7</f>
-        <v>50</v>
-      </c>
+    <row r="7" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="7">
         <v>2</v>
       </c>
@@ -1871,14 +1857,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="8" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ref="B8:B15" si="0">E8/A8</f>
-        <v>90</v>
-      </c>
+    <row r="8" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="7">
         <v>3</v>
       </c>
@@ -1913,19 +1892,12 @@
         <v>38</v>
       </c>
       <c r="N8" s="7">
-        <f t="shared" ref="N8:N15" si="1">N7+50000000</f>
+        <f t="shared" ref="N8:N15" si="0">N7+50000000</f>
         <v>150000000</v>
       </c>
       <c r="HW8"/>
     </row>
-    <row r="9" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
+    <row r="9" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="7">
         <v>4</v>
       </c>
@@ -1960,19 +1932,12 @@
         <v>38</v>
       </c>
       <c r="N9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>200000000</v>
       </c>
       <c r="HW9"/>
     </row>
-    <row r="10" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
+    <row r="10" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="7">
         <v>5</v>
       </c>
@@ -2007,18 +1972,11 @@
         <v>38</v>
       </c>
       <c r="N10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>250000000</v>
       </c>
     </row>
-    <row r="11" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>275</v>
-      </c>
+    <row r="11" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="7">
         <v>6</v>
       </c>
@@ -2053,18 +2011,11 @@
         <v>38</v>
       </c>
       <c r="N11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>300000000</v>
       </c>
     </row>
-    <row r="12" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
+    <row r="12" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="7">
         <v>7</v>
       </c>
@@ -2099,18 +2050,11 @@
         <v>38</v>
       </c>
       <c r="N12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>350000000</v>
       </c>
     </row>
-    <row r="13" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
+    <row r="13" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="7">
         <v>8</v>
       </c>
@@ -2145,18 +2089,11 @@
         <v>38</v>
       </c>
       <c r="N13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>400000000</v>
       </c>
     </row>
-    <row r="14" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>650</v>
-      </c>
+    <row r="14" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="7">
         <v>9</v>
       </c>
@@ -2191,18 +2128,11 @@
         <v>38</v>
       </c>
       <c r="N14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>450000000</v>
       </c>
     </row>
-    <row r="15" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>825</v>
-      </c>
+    <row r="15" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="7">
         <v>10</v>
       </c>
@@ -2237,11 +2167,11 @@
         <v>38</v>
       </c>
       <c r="N15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>500000000</v>
       </c>
     </row>
-    <row r="16" spans="1:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="3:231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/UnionConfig.xlsx
+++ b/Excel/UnionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0415C89-5E7C-45A9-A292-1E5DCA11C3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90655339-9E05-4C44-8180-D98E30BF67C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1905" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnionProto" sheetId="1" r:id="rId1"/>
@@ -1646,7 +1646,7 @@
   <dimension ref="C1:HW61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2143,7 +2143,7 @@
         <v>16500</v>
       </c>
       <c r="F15" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7">
         <v>40</v>
